--- a/auto_mail/auto_mail.xlsx
+++ b/auto_mail/auto_mail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Library/Mobile Documents/com~apple~Keynote/Documents/samsung-lecture-rpa/auto_mail/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nossi/Desktop/samsung-rpa/auto_mail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4F0EE3-513C-4345-B295-8F748888E36A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C3EC8D-E9FF-5048-89A2-4D79E04F06B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4540" yWindow="760" windowWidth="15960" windowHeight="15420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="24">
   <si>
     <t>이 문서는 Numbers에서 내보낸 문서입니다. 각 표가 Excel 워크시트로 변환되었습니다. 각 Numbers 시트에 있는 모든 다른 대상체는 개별 워크시트에 위치 지정되었습니다. Excel에서 공식 계산이 다를 수 있으니 유의하십시오.</t>
   </si>
@@ -94,13 +94,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>32191097@dankook.ac.kr</t>
-  </si>
-  <si>
-    <t>32191097@dankook.ac.kr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>nam</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -118,6 +111,10 @@
   </si>
   <si>
     <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>test@test.com</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1635,7 +1632,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18" customHeight="1"/>
@@ -1654,40 +1651,40 @@
         <v>17</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="6"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="18"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -1701,7 +1698,7 @@
     </row>
     <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="16"/>
-      <c r="B6" s="6"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="18"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -1714,16 +1711,16 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="17" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" ht="17" customHeight="1">
-      <c r="A9" s="6"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
@@ -1904,6 +1901,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{3392FC48-E169-844E-8045-A1DF33D61930}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D06FA7B6-B75B-C948-AE71-8CC247DEC56E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
